--- a/CRMautomation/Data/inputData.xlsx
+++ b/CRMautomation/Data/inputData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{85883520-4992-47F6-AE0A-A62B62CA6C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4C6FB94D-4681-4EE4-9142-192DC4E9B140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22464" windowHeight="13224" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22488" windowHeight="13224" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="campaignpage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M12"/>
+  <oleSize ref="A1:I12"/>
 </workbook>
 </file>
 
@@ -907,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68452A0-D48F-46FD-8B99-7A22C76BA936}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1031,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2717E95-24C9-4EC5-9E13-3BD82E798F8D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
